--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,8 +426,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[ 8. 10.  8.  8.  6.  3.  8.  3.  8. 10.  8. 10.  6.  1.  3.  6.  8. 10.
-  6.  3. 10. 10.  6.  1.  8.  6.  6.  6. 10.  1.  3.  8. 10.  1.  8.  8.]</t>
+          <t>[11.  2. 11. 11. 11.  0.  0.  9. 11.  2.  0.  2. 10.  9.  2.  4.  2.  4.
+ 10.  5.  2.  4.  4. 11.  9.  0. 10.  0. 11.  1.  1. 10.  5.  9.  9.  1.]</t>
         </is>
       </c>
     </row>
@@ -453,10 +453,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 0. 0. 0. 0.
- 1. 1. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0. 0. 1. 1. 1. 1.
- 1. 1. 1. 1. 0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 1. 1. 1. 1.
- 0. 0. 0. 0. 1. 1. 1. 1. 1. 1. 1. 1. 0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0. 0.]</t>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,8 +426,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[11.  2. 11. 11. 11.  0.  0.  9. 11.  2.  0.  2. 10.  9.  2.  4.  2.  4.
- 10.  5.  2.  4.  4. 11.  9.  0. 10.  0. 11.  1.  1. 10.  5.  9.  9.  1.]</t>
+          <t>[1. 1. 1. 3. 3. 1. 1. 3. 1. 1. 1. 1. 1. 1. 3. 3. 1. 3. 1. 1. 1. 3. 3. 3.
+ 3. 1. 3. 3. 3. 3. 1. 1. 3. 3. 1. 3.]</t>
         </is>
       </c>
     </row>
@@ -453,10 +453,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+          <t>[3. 3. 3. 3. 0. 0. 0. 0. 3. 3. 3. 3. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3.
+ 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 3. 3. 3. 3. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+ 0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,8 +426,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 3. 3. 1. 1. 3. 1. 1. 1. 1. 1. 1. 3. 3. 1. 3. 1. 1. 1. 3. 3. 3.
- 3. 1. 3. 3. 3. 3. 1. 1. 3. 3. 1. 3.]</t>
+          <t>[ 7. 12.  4. 10.  3.  3.  8.  8.  8. 10.  3. 12. 10.  4. 12.  3.  7. 10.
+ 10.  4. 12.  8.  3.  4.  8.  8.  4. 12.  3. 10. 12.  8. 12. 12. 12.  4.]</t>
         </is>
       </c>
     </row>
@@ -453,10 +453,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 0. 0. 0. 0. 3. 3. 3. 3. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3.
- 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 3. 3. 3. 3. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[0. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2.
+ 2. 2. 2. 2. 2. 2. 2. 2. 0. 0. 2. 0. 0. 2. 0. 0. 2. 2. 0. 0. 2. 2. 0. 2.
+ 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 0. 0.
+ 0. 2. 0. 2. 2. 0. 2. 2. 0. 2. 0. 2. 0. 0. 0. 2. 2. 0. 2. 0. 2. 2. 0. 0.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,8 +426,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[ 7. 12.  4. 10.  3.  3.  8.  8.  8. 10.  3. 12. 10.  4. 12.  3.  7. 10.
- 10.  4. 12.  8.  3.  4.  8.  8.  4. 12.  3. 10. 12.  8. 12. 12. 12.  4.]</t>
+          <t>[10. 13. 13.  7.  1. 13.  7.  0. 13.  7.  7.  9.  7.  7. 10. 10. 10.  7.
+  0.  0. 13.  1.  1.  0.  9. 13. 10.  7.  9. 10. 10. 10.  7. 13.  0.  0.]</t>
         </is>
       </c>
     </row>
@@ -453,10 +453,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[0. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2.
- 2. 2. 2. 2. 2. 2. 2. 2. 0. 0. 2. 0. 0. 2. 0. 0. 2. 2. 0. 0. 2. 2. 0. 2.
- 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 0. 0.
- 0. 2. 0. 2. 2. 0. 2. 2. 0. 2. 0. 2. 0. 0. 0. 2. 2. 0. 2. 0. 2. 2. 0. 0.]</t>
+          <t>[2. 2. 2. 2. 2. 0. 2. 0. 2. 2. 2. 2. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 2.
+ 0. 0. 0. 2. 0. 2. 2. 0. 2. 2. 2. 0. 2. 2. 2. 2. 0. 0. 0. 0. 2. 2. 2. 2.
+ 2. 2. 2. 2. 2. 0. 2. 0. 2. 2. 2. 2. 0. 2. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2.
+ 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 2. 2. 2. 2. 0. 0. 2. 2. 2. 2. 2. 2.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,8 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[10. 13. 13.  7.  1. 13.  7.  0. 13.  7.  7.  9.  7.  7. 10. 10. 10.  7.
-  0.  0. 13.  1.  1.  0.  9. 13. 10.  7.  9. 10. 10. 10.  7. 13.  0.  0.]</t>
+          <t>[10.  2.  6. 10. 12.  8. 12.  4.  6.  2.  4.  6.  6.  8.  8.  4.  2. 12.]</t>
         </is>
       </c>
     </row>
@@ -453,10 +452,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[2. 2. 2. 2. 2. 0. 2. 0. 2. 2. 2. 2. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 2.
- 0. 0. 0. 2. 0. 2. 2. 0. 2. 2. 2. 0. 2. 2. 2. 2. 0. 0. 0. 0. 2. 2. 2. 2.
- 2. 2. 2. 2. 2. 0. 2. 0. 2. 2. 2. 2. 0. 2. 0. 2. 2. 2. 2. 2. 2. 2. 2. 2.
- 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 2. 0. 2. 2. 2. 2. 0. 0. 2. 2. 2. 2. 2. 2.]</t>
+          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,7 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[10.  2.  6. 10. 12.  8. 12.  4.  6.  2.  4.  6.  6.  8.  8.  4.  2. 12.]</t>
+          <t>[ 0.  7.  2.  9. 13.  6.  5.  4.  7.  5.  6. 10. 10. 13.  6.  6.  5. 13.]</t>
         </is>
       </c>
     </row>
@@ -452,9 +452,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 0. 0. 0. 0.
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.
  0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,7 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[ 0.  7.  2.  9. 13.  6.  5.  4.  7.  5.  6. 10. 10. 13.  6.  6.  5. 13.]</t>
+          <t>[ 1.  9.  3.  2. 12.  0. 12.  9.  8.  2.  0.  0.  2.  6.  7.  2.  5.  5.]</t>
         </is>
       </c>
     </row>
@@ -454,8 +454,8 @@
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.
- 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+ 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,7 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[ 1.  9.  3.  2. 12.  0. 12.  9.  8.  2.  0.  0.  2.  6.  7.  2.  5.  5.]</t>
+          <t>[ 1.  1.  8. 10.  8.  7.  8. 10.  8.  7. 10.  0. 10.  5. 10.  0. 12.  7.]</t>
         </is>
       </c>
     </row>
@@ -452,10 +452,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3.
- 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 3. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1.
+ 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 1. 1. 1. 1. 1. 1. 1. 1.
+ 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,7 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[ 1.  1.  8. 10.  8.  7.  8. 10.  8.  7. 10.  0. 10.  5. 10.  0. 12.  7.]</t>
+          <t>[ 8. 11.  0.  3. 12.  8.  9.  8.  2. 12.  9.  7.  6.  1.  0.  7.  2. 13.]</t>
         </is>
       </c>
     </row>
@@ -452,10 +452,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1.
- 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1.
- 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 1. 1. 1. 1. 1. 1. 1. 1.
- 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
     </row>

--- a/examine_individual.xlsx
+++ b/examine_individual.xlsx
@@ -426,7 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[ 8. 11.  0.  3. 12.  8.  9.  8.  2. 12.  9.  7.  6.  1.  0.  7.  2. 13.]</t>
+          <t>[ 5.  6.  7.  9. 10.  5.  7.  9. 10.  4.  8. 10. 11.  9. 11.  9.  4. 10.]</t>
         </is>
       </c>
     </row>
